--- a/Document/Excel/Language.xlsx
+++ b/Document/Excel/Language.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workcode\flexmobi\PigGoGo\Document\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/myself/PigGoGo/Document/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20295"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>string</t>
   </si>
@@ -64,13 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Game1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game2</t>
-  </si>
-  <si>
     <t>Desc1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,12 +98,88 @@
   </si>
   <si>
     <t>只有相同類型的豬才可以用互相跑到對面的隊伍中</t>
+  </si>
+  <si>
+    <t>Guide1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide2</t>
+  </si>
+  <si>
+    <t>点左边</t>
+    <rPh sb="0" eb="1">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zuo bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点右边</t>
+    <rPh sb="0" eb="1">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>you bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide3</t>
+  </si>
+  <si>
+    <t>看！猪都回去睡觉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點左邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click on the left side.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左側をクリックしてください。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點右邊</t>
+    <rPh sb="1" eb="2">
+      <t>you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click on the right side.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右側をクリックしてください。</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看！豬都回去睡覺了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look! The pigs have all gone back to sleep.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見て！豚たちは皆寝に帰ってしまったよ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -278,6 +347,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -580,22 +650,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" customWidth="1"/>
+    <col min="4" max="4" width="52.1640625" customWidth="1"/>
+    <col min="5" max="5" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -612,7 +682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -638,7 +708,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -657,62 +727,88 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
@@ -960,11 +1056,11 @@
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
@@ -973,6 +1069,13 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Document/Excel/Language.xlsx
+++ b/Document/Excel/Language.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>string</t>
   </si>
@@ -98,13 +98,6 @@
   </si>
   <si>
     <t>只有相同類型的豬才可以用互相跑到對面的隊伍中</t>
-  </si>
-  <si>
-    <t>Guide1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guide2</t>
   </si>
   <si>
     <t>点左边</t>
@@ -127,9 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Guide3</t>
-  </si>
-  <si>
     <t>看！猪都回去睡觉了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +163,41 @@
   </si>
   <si>
     <t>見て！豚たちは皆寝に帰ってしまったよ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把相同颜色的猪放到一起</t>
+    <rPh sb="0" eb="1">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiang tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan se de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang dao yi qi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -727,95 +752,105 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="56" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
@@ -1063,11 +1098,11 @@
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
@@ -1076,6 +1111,13 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Document/Excel/Language.xlsx
+++ b/Document/Excel/Language.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/myself/PigGoGo/Document/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workcode\myself\PigGoGo\Document\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20205"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>string</t>
   </si>
@@ -183,6 +183,29 @@
   </si>
   <si>
     <t>把相同颜色的猪放到一起</t>
+    <rPh sb="0" eb="1">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiang tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan se de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang dao yi qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别让炸弹爆炸，这个炸弹没点一次就会减少一次，点击界面继续</t>
     <rPh sb="0" eb="1">
       <t>ba</t>
     </rPh>
@@ -204,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,22 +698,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.1640625" customWidth="1"/>
-    <col min="4" max="4" width="52.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="48.625" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="52.125" customWidth="1"/>
     <col min="5" max="5" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -707,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -733,7 +756,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -818,46 +841,56 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -1105,11 +1138,11 @@
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
@@ -1118,6 +1151,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
